--- a/result/reduced_orig_classification_result.xlsx
+++ b/result/reduced_orig_classification_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5507928301185403</v>
+        <v>0.5368887870543348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.554</v>
+        <v>0.53</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5945201362266704</v>
+        <v>0.5881833695699248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5835</v>
+        <v>0.5814999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5786438668789294</v>
+        <v>0.6654802465277141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.59</v>
+        <v>0.986</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5798270727296582</v>
+        <v>0.5022520498091527</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5725</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5466612097381467</v>
+        <v>0.5837208477215682</v>
       </c>
       <c r="K4" t="n">
-        <v>0.553</v>
+        <v>0.602</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5963152385615855</v>
+        <v>0.591064732320134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5765</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6515818593591692</v>
+        <v>0.6775616024809574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.74</v>
+        <v>0.795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5990889934025622</v>
+        <v>0.6006652472605893</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6045</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6106259324738417</v>
+        <v>0.6581324052970674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.629</v>
+        <v>0.951</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6027884089175526</v>
+        <v>0.5034250373314075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6054999999999999</v>
+        <v>0.507</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6539902016912071</v>
+        <v>0.622681016559759</v>
       </c>
       <c r="K5" t="n">
-        <v>0.728</v>
+        <v>0.642</v>
       </c>
       <c r="L5" t="n">
-        <v>0.611271033316077</v>
+        <v>0.6242898569253035</v>
       </c>
       <c r="M5" t="n">
-        <v>0.615</v>
+        <v>0.6264999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6533193430021657</v>
+        <v>0.2315652181000164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7769999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.577449500170186</v>
+        <v>0.5081048387096774</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5885</v>
+        <v>0.5135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5811367682945353</v>
+        <v>0.6584475508878966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.9710000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5718519680497747</v>
+        <v>0.4982237012481695</v>
       </c>
       <c r="I6" t="n">
-        <v>0.569</v>
+        <v>0.497</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4758712662845818</v>
+        <v>0.5793743266230057</v>
       </c>
       <c r="K6" t="n">
-        <v>0.518</v>
+        <v>0.58</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5113544775210335</v>
+        <v>0.5993515714331362</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5240000000000001</v>
+        <v>0.6180000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,40 +687,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4953954324583605</v>
+        <v>0.3646551573457102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4959196888529753</v>
+        <v>0.3938550618019467</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.4065</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03524582966388235</v>
+        <v>0.1104702787739126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.021</v>
+        <v>0.114</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3167948717948718</v>
+        <v>0.2728305558383962</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4825</v>
+        <v>0.477</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5103894089703642</v>
+        <v>0.4890675959005309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5439999999999999</v>
+        <v>0.509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5187483131949481</v>
+        <v>0.5101020151904251</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5494999999999999</v>
+        <v>0.5130000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_orig_classification_result.xlsx
+++ b/result/reduced_orig_classification_result.xlsx
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5368887870543348</v>
+        <v>0.3763611233319027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53</v>
+        <v>0.322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5881833695699248</v>
+        <v>0.6337611749680715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5814999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.6654802465277141</v>
@@ -582,16 +582,16 @@
         <v>0.5044999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5837208477215682</v>
+        <v>0.6186990012492174</v>
       </c>
       <c r="K4" t="n">
-        <v>0.602</v>
+        <v>0.6129999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.591064732320134</v>
+        <v>0.6470572502149308</v>
       </c>
       <c r="M4" t="n">
-        <v>0.602</v>
+        <v>0.6260000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6775616024809574</v>
+        <v>0.6099383024474199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.795</v>
+        <v>0.6040000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6006652472605893</v>
+        <v>0.6528329872542478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6199999999999999</v>
+        <v>0.635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6581324052970674</v>
+        <v>0.6584105147183463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.951</v>
+        <v>0.952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5034250373314075</v>
+        <v>0.503466578657865</v>
       </c>
       <c r="I5" t="n">
         <v>0.507</v>
       </c>
       <c r="J5" t="n">
-        <v>0.622681016559759</v>
+        <v>0.6296802397477146</v>
       </c>
       <c r="K5" t="n">
-        <v>0.642</v>
+        <v>0.6449999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6242898569253035</v>
+        <v>0.6342670187606314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6264999999999998</v>
+        <v>0.6239999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2315652181000164</v>
+        <v>0.3069578190985829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158</v>
+        <v>0.229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5081048387096774</v>
+        <v>0.5945945787958171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5135</v>
+        <v>0.579</v>
       </c>
       <c r="F6" t="n">
         <v>0.6584475508878966</v>
@@ -668,16 +668,16 @@
         <v>0.497</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5793743266230057</v>
+        <v>0.6413186681572294</v>
       </c>
       <c r="K6" t="n">
-        <v>0.58</v>
+        <v>0.643</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5993515714331362</v>
+        <v>0.6568547824988145</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6180000000000001</v>
+        <v>0.6420000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3646551573457102</v>
+        <v>0.5735082173823869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.375</v>
+        <v>0.58</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3938550618019467</v>
+        <v>0.6027026133312597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4065</v>
+        <v>0.6110000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.1104702787739126</v>
@@ -711,16 +711,16 @@
         <v>0.477</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4890675959005309</v>
+        <v>0.5387609769255614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.509</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5101020151904251</v>
+        <v>0.5482004306528968</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5130000000000001</v>
+        <v>0.544</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_orig_classification_result.xlsx
+++ b/result/reduced_orig_classification_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3763611233319027</v>
+        <v>0.6248218701785994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.322</v>
+        <v>0.575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6337611749680715</v>
+        <v>0.7027318861503392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.6615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654802465277141</v>
+        <v>0.5684898867295347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.986</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5022520498091527</v>
+        <v>0.5733349751257749</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6186990012492174</v>
+        <v>0.9432157734716838</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6129999999999999</v>
+        <v>0.9410000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6470572502149308</v>
+        <v>0.9494730136612695</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6260000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6099383024474199</v>
+        <v>0.6419547449854721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6040000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6528329872542478</v>
+        <v>0.6730249821976331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.635</v>
+        <v>0.6575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6584105147183463</v>
+        <v>0.503783930320159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.952</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.503466578657865</v>
+        <v>0.5718238318515813</v>
       </c>
       <c r="I5" t="n">
-        <v>0.507</v>
+        <v>0.5405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6296802397477146</v>
+        <v>0.848534569367612</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6449999999999999</v>
+        <v>0.849</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6342670187606314</v>
+        <v>0.8678155414158395</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6239999999999999</v>
+        <v>0.8505</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3069578190985829</v>
+        <v>0.4870089134085142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229</v>
+        <v>0.3810000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5945945787958171</v>
+        <v>0.7168958043509163</v>
       </c>
       <c r="E6" t="n">
-        <v>0.579</v>
+        <v>0.611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6584475508878966</v>
+        <v>0.5624108185560841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9710000000000001</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4982237012481695</v>
+        <v>0.5695412193233521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.497</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6413186681572294</v>
+        <v>0.8103591405528215</v>
       </c>
       <c r="K6" t="n">
-        <v>0.643</v>
+        <v>0.8219999999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6568547824988145</v>
+        <v>0.8214003094457821</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6420000000000001</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -687,40 +687,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5735082173823869</v>
+        <v>0.5511428465469944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6027026133312597</v>
+        <v>0.5557461496970595</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6110000000000001</v>
+        <v>0.5615000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1104702787739126</v>
+        <v>0.6668896321070233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.114</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2728305558383962</v>
+        <v>0.500251256281407</v>
       </c>
       <c r="I7" t="n">
-        <v>0.477</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5387609769255614</v>
+        <v>0.8720395474396281</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5482004306528968</v>
+        <v>0.8875172878895017</v>
       </c>
       <c r="M7" t="n">
-        <v>0.544</v>
+        <v>0.8739999999999999</v>
       </c>
     </row>
   </sheetData>
